--- a/public/init_data/student_topic_init.xlsx
+++ b/public/init_data/student_topic_init.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\HTTT\DoAnTN\Project\FE3\public\init_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79932727-5E45-412F-A191-1D38207B8B87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2983F8EB-8221-4671-9D39-E7884D5E96A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{B8962491-F3BD-455F-A1CF-BA3E487930C5}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>STT</t>
   </si>
   <si>
-    <t>mssv</t>
-  </si>
-  <si>
     <t>ten</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>20012015.anhquan@iuh.edu.vn</t>
+  </si>
+  <si>
+    <t>maso</t>
   </si>
 </sst>
 </file>
@@ -170,9 +170,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -512,7 +511,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -522,7 +521,7 @@
     <col min="4" max="4" width="19.77734375" customWidth="1"/>
     <col min="5" max="5" width="15.77734375" customWidth="1"/>
     <col min="6" max="6" width="19.77734375" customWidth="1"/>
-    <col min="7" max="7" width="32.77734375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="32.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -530,22 +529,22 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>22</v>
+      <c r="G1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
@@ -556,19 +555,19 @@
         <v>21012011</v>
       </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
@@ -579,19 +578,19 @@
         <v>21012012</v>
       </c>
       <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -602,19 +601,19 @@
         <v>21012013</v>
       </c>
       <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -625,19 +624,19 @@
         <v>21012014</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>26</v>
+        <v>19</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -648,19 +647,19 @@
         <v>21012015</v>
       </c>
       <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
       <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" t="s">
-        <v>20</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>27</v>
+      <c r="G6" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/public/init_data/student_topic_init.xlsx
+++ b/public/init_data/student_topic_init.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\HTTT\DoAnTN\Project\FE3\public\init_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2983F8EB-8221-4671-9D39-E7884D5E96A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F15173-1384-41B3-8CD8-BCFF645D82D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{B8962491-F3BD-455F-A1CF-BA3E487930C5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B8962491-F3BD-455F-A1CF-BA3E487930C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -170,9 +170,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -511,7 +512,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -519,7 +520,7 @@
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="3" width="15.109375" customWidth="1"/>
     <col min="4" max="4" width="19.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="15.77734375" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.77734375" customWidth="1"/>
     <col min="7" max="7" width="32.77734375" customWidth="1"/>
   </cols>
@@ -537,7 +538,7 @@
       <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
@@ -560,7 +561,7 @@
       <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F2" t="s">
@@ -583,7 +584,7 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
@@ -606,7 +607,7 @@
       <c r="D4" t="s">
         <v>10</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="F4" t="s">
@@ -629,7 +630,7 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
@@ -652,7 +653,7 @@
       <c r="D6" t="s">
         <v>13</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="F6" t="s">

--- a/public/init_data/student_topic_init.xlsx
+++ b/public/init_data/student_topic_init.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\HTTT\DoAnTN\Project\FE3\public\init_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F15173-1384-41B3-8CD8-BCFF645D82D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA4DFF9-FD76-4B43-B84E-2ABCC5277125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B8962491-F3BD-455F-A1CF-BA3E487930C5}"/>
+    <workbookView xWindow="3600" yWindow="3435" windowWidth="21600" windowHeight="11295" xr2:uid="{B8962491-F3BD-455F-A1CF-BA3E487930C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -512,20 +512,20 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.6640625" customWidth="1"/>
-    <col min="2" max="3" width="15.109375" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" customWidth="1"/>
-    <col min="5" max="5" width="15.77734375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="19.77734375" customWidth="1"/>
-    <col min="7" max="7" width="32.77734375" customWidth="1"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,12 +548,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>21012011</v>
+        <v>21012401</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -571,12 +571,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>21012012</v>
+        <v>21012042</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -594,12 +594,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>21012013</v>
+        <v>21012043</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -617,12 +617,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>21012014</v>
+        <v>21012044</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -640,12 +640,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>21012015</v>
+        <v>21012045</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -667,11 +667,11 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" xr:uid="{8815B15C-BCCF-480F-9C1B-DB16E9263DD8}"/>
-    <hyperlink ref="G3:G6" r:id="rId2" display="20012011.le@iuh.edu.vn" xr:uid="{2AF5FA16-739D-42FE-A5F8-8E2395785122}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{510BDE56-9F6C-450F-9FE5-ACF5D951BE79}"/>
+    <hyperlink ref="G6" r:id="rId2" xr:uid="{FCF7A3E8-F665-4415-8069-FD575A5A62F6}"/>
+    <hyperlink ref="G5" r:id="rId3" xr:uid="{65415F2F-E70C-4B05-9382-8D614EE6C1FD}"/>
     <hyperlink ref="G4" r:id="rId4" xr:uid="{4D8CDE15-BA36-4E1D-94E6-3CAD2D714373}"/>
-    <hyperlink ref="G5" r:id="rId5" xr:uid="{65415F2F-E70C-4B05-9382-8D614EE6C1FD}"/>
-    <hyperlink ref="G6" r:id="rId6" xr:uid="{FCF7A3E8-F665-4415-8069-FD575A5A62F6}"/>
+    <hyperlink ref="G3" r:id="rId5" xr:uid="{510BDE56-9F6C-450F-9FE5-ACF5D951BE79}"/>
+    <hyperlink ref="G3:G6" r:id="rId6" display="20012011.le@iuh.edu.vn" xr:uid="{2AF5FA16-739D-42FE-A5F8-8E2395785122}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId7"/>
